--- a/data/IceAnom.xlsx
+++ b/data/IceAnom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26362cec7e0913ab/Documents/Nhydra/Projects/Harpseals/HSmod/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26362cec7e0913ab/Documents/Nhydra/Projects/Harpseals/HSmodel/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{243BB17A-4E6B-47A4-84D4-77C4EA836F85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{5BF52D47-69F3-4069-B9AB-064B4C3E0A2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AE961753-35BE-474E-8549-EFD56D08DF62}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1845" windowWidth="27120" windowHeight="14355" xr2:uid="{09E41039-429D-4452-BBCC-6806428E6920}"/>
+    <workbookView xWindow="-27975" yWindow="825" windowWidth="20640" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -398,22 +399,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8238EC70-EC4C-40A9-8D20-DBE1FBB18840}">
-  <dimension ref="A1:E52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.29296875" customWidth="1"/>
+    <col min="3" max="3" width="11.87890625" customWidth="1"/>
+    <col min="4" max="4" width="11.41015625" customWidth="1"/>
+    <col min="5" max="5" width="10.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1969</v>
       </c>
@@ -441,15 +442,15 @@
         <v>0.16320000000000001</v>
       </c>
       <c r="D2">
-        <f>(B2-AVERAGE(B$2:B$52))/AVERAGE(B$2:B$52)</f>
-        <v>-0.61652313037601059</v>
+        <f t="shared" ref="D2:E6" si="0">(B2-AVERAGE(B$2:B$33))/AVERAGE(B$2:B$33)</f>
+        <v>-0.6501873119204078</v>
       </c>
       <c r="E2">
-        <f>(C2-AVERAGE(C$2:C$52))/AVERAGE(C$2:C$52)</f>
-        <v>-0.27376797431243888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>-0.34652201659221443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1970</v>
       </c>
@@ -460,15 +461,15 @@
         <v>0.32029999999999997</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D52" si="0">(B3-AVERAGE(B$2:B$52))/AVERAGE(B$2:B$52)</f>
-        <v>1.0127624971618256E-2</v>
+        <f t="shared" si="0"/>
+        <v>-7.8548179082478603E-2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E52" si="1">(C3-AVERAGE(C$2:C$52))/AVERAGE(C$2:C$52)</f>
-        <v>0.42531934943459426</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.28253062552398089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>1971</v>
       </c>
@@ -480,14 +481,14 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.22260181748097765</v>
+        <v>0.11527359823128429</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
-        <v>0.47782877286053327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.3297796463831224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>1972</v>
       </c>
@@ -499,14 +500,14 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.38094760353358009</v>
+        <v>0.25971872505066651</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0.2860358788217226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.15720059561795344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>1973</v>
       </c>
@@ -518,14 +519,14 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.17736016432309115</v>
+        <v>7.4003561997175005E-2</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.14764239843640936</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>3.2671396573945452E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>1974</v>
       </c>
@@ -536,15 +537,15 @@
         <v>0.2586</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.36263550582681647</v>
+        <f t="shared" ref="D7:D19" si="1">(B7-AVERAGE(B$2:B$33))/AVERAGE(B$2:B$33)</f>
+        <v>0.2430141865749556</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0.15075736423286326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E7:E19" si="2">(C7-AVERAGE(C$2:C$33))/AVERAGE(C$2:C$33)</f>
+        <v>3.547430459101307E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>1975</v>
       </c>
@@ -555,15 +556,15 @@
         <v>0.20680000000000001</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.21344576862759584</v>
+        <f t="shared" si="1"/>
+        <v>0.10692132899342882</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>-7.9750104704732649E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>-0.17194088867199722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>1976</v>
       </c>
@@ -574,15 +575,15 @@
         <v>0.34749999999999998</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0.13750442225542939</v>
+        <f t="shared" si="1"/>
+        <v>3.7646625314745524E-2</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0.54635802038252113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.39144362275861183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>1977</v>
       </c>
@@ -593,15 +594,15 @@
         <v>0.2387</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0.24064461963322992</v>
+        <f t="shared" si="1"/>
+        <v>0.13173248172941113</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
-        <v>6.220333659081384E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>-4.4208366179911758E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>1978</v>
       </c>
@@ -612,15 +613,15 @@
         <v>0.10539999999999999</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>-7.739343024453095E-2</v>
+        <f t="shared" si="1"/>
+        <v>-0.15838604679727311</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
-        <v>-0.53097515007678353</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>-0.57796213571580524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>1979</v>
       </c>
@@ -631,15 +632,15 @@
         <v>0.26650000000000001</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0.273767972838111</v>
+        <f t="shared" si="1"/>
+        <v>0.16194804397224102</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
-        <v>0.18591197822141561</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>6.7107123640777269E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>1980</v>
       </c>
@@ -650,15 +651,15 @@
         <v>0.26300000000000001</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>3.3287042659583904E-2</v>
+        <f t="shared" si="1"/>
+        <v>-5.7421851010256049E-2</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
-        <v>0.17033714923914561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>5.3092583555438722E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>1981</v>
       </c>
@@ -669,15 +670,15 @@
         <v>0.20979999999999999</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>-0.44121172438920081</v>
+        <f t="shared" si="1"/>
+        <v>-0.49026592151323461</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
-        <v>-6.6400251291358472E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>-0.15992842574170715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>1982</v>
       </c>
@@ -688,15 +689,15 @@
         <v>0.20019999999999999</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>-9.1935390188137331E-2</v>
+        <f t="shared" si="1"/>
+        <v>-0.17165141558680827</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
-        <v>-0.10911978221415616</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>-0.19836830711863571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>1983</v>
       </c>
@@ -707,15 +708,15 @@
         <v>0.28270000000000001</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>-0.22712175855277414</v>
+        <f t="shared" si="1"/>
+        <v>-0.29497021433396792</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
-        <v>0.25800118665363669</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.13197442346434418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>1984</v>
       </c>
@@ -726,15 +727,15 @@
         <v>0.3175</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>-2.0033477133639309E-2</v>
+        <f t="shared" si="1"/>
+        <v>-0.1060615365718847</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
-        <v>0.41285948624877838</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.2713189934557102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>1985</v>
       </c>
@@ -745,15 +746,15 @@
         <v>0.2581</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0.15958665772535008</v>
+        <f t="shared" si="1"/>
+        <v>5.7790333476632122E-2</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
-        <v>0.14853238866396754</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>3.3472227435964709E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>1986</v>
       </c>
@@ -764,15 +765,15 @@
         <v>0.18</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>0.24845419071405558</v>
+        <f t="shared" si="1"/>
+        <v>0.13885647607934667</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
-        <v>-0.199008795197543</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>-0.27925222418258955</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>1987</v>
       </c>
@@ -783,15 +784,15 @@
         <v>0.17519999999999999</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>7.3950671390779418E-2</v>
+        <f t="shared" ref="D20:D38" si="3">(B20-AVERAGE(B$2:B$33))/AVERAGE(B$2:B$33)</f>
+        <v>-2.0327949395074561E-2</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
-        <v>-0.22036856065894184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E20:E38" si="4">(C20-AVERAGE(C$2:C$33))/AVERAGE(C$2:C$33)</f>
+        <v>-0.29847216487105382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>1988</v>
       </c>
@@ -802,15 +803,15 @@
         <v>0.29859999999999998</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0.15877877106181648</v>
+        <f t="shared" si="3"/>
+        <v>5.7053368543880253E-2</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
-        <v>0.32875540974452028</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.19564047699488199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>1989</v>
       </c>
@@ -821,15 +822,15 @@
         <v>0.2263</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0.32762708374035671</v>
+        <f t="shared" si="3"/>
+        <v>0.21107903948903772</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
-        <v>7.0239424822001557E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-9.3859879625111123E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>1990</v>
       </c>
@@ -840,15 +841,15 @@
         <v>0.33839999999999998</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>0.3790625346520014</v>
+        <f t="shared" si="3"/>
+        <v>0.25799914020757858</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
-        <v>0.50586346502861912</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.35500581853673163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>1991</v>
       </c>
@@ -859,15 +860,15 @@
         <v>0.28189999999999998</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>0.32520342374975564</v>
+        <f t="shared" si="3"/>
+        <v>0.20886814469078185</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
-        <v>0.2544412257434035</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.12877110001626671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>1992</v>
       </c>
@@ -878,15 +879,15 @@
         <v>0.22409999999999999</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
-        <v>0.34297693034749671</v>
+        <f t="shared" si="3"/>
+        <v>0.22508137321132474</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
-        <v>-2.7659500209410194E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-0.10266901910732396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>1993</v>
       </c>
@@ -897,15 +898,15 @@
         <v>0.29039999999999999</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
-        <v>0.43184446333620208</v>
+        <f t="shared" si="3"/>
+        <v>0.30614751581403915</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
-        <v>0.29226581041463062</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.16280641165208889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>1994</v>
       </c>
@@ -916,15 +917,15 @@
         <v>0.2135</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
-        <v>0.2823854305824704</v>
+        <f t="shared" si="3"/>
+        <v>0.16980900325492859</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
-        <v>-4.9935432081530146E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-0.14511305479434922</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>1995</v>
       </c>
@@ -935,15 +936,15 @@
         <v>0.24440000000000001</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
-        <v>0.29127218388134085</v>
+        <f t="shared" si="3"/>
+        <v>0.17791561751519996</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
-        <v>8.756805807622503E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-2.1384686612360385E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>1996</v>
       </c>
@@ -954,15 +955,15 @@
         <v>0.31280000000000002</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
-        <v>-0.30952619823320998</v>
+        <f t="shared" si="3"/>
+        <v>-0.37014063747466674</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
-        <v>0.39194471590115876</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.25249946819825569</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>1997</v>
       </c>
@@ -973,15 +974,15 @@
         <v>0.24529999999999999</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
-        <v>0.1536621555261031</v>
+        <f t="shared" si="3"/>
+        <v>5.2385923969784538E-2</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
-        <v>9.1573014100237243E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-1.7780947733273395E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>1998</v>
       </c>
@@ -992,15 +993,15 @@
         <v>0.1754</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
-        <v>-0.15414266328023116</v>
+        <f t="shared" si="3"/>
+        <v>-0.22839771540870843</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
-        <v>-0.21947857043138352</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-0.29767133400903445</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>1999</v>
       </c>
@@ -1011,15 +1012,15 @@
         <v>0.25480000000000003</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
-        <v>-4.8040214802807131E-2</v>
+        <f t="shared" si="3"/>
+        <v>-0.13160965424061902</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
-        <v>0.13384754990925596</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>2.0258518212645637E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>2000</v>
       </c>
@@ -1030,15 +1031,15 @@
         <v>0.21329999999999999</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
-        <v>-0.16168293880654547</v>
+        <f t="shared" si="3"/>
+        <v>-0.2352760547810599</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
-        <v>-5.0825422309088458E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-0.14591388565636859</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>2001</v>
       </c>
@@ -1049,15 +1050,15 @@
         <v>0.1384</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
-        <v>1.7398604943421523E-2</v>
+        <f t="shared" si="3"/>
+        <v>-7.1915494687710968E-2</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
-        <v>-0.38412676252966638</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-0.44582504348261326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>2002</v>
       </c>
@@ -1068,15 +1069,15 @@
         <v>0.21560000000000001</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
-        <v>4.271238706747691E-2</v>
+        <f t="shared" si="3"/>
+        <v>-4.8823926794816626E-2</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
-        <v>-4.059053469216807E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-0.13670433074314603</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>2003</v>
       </c>
@@ -1087,15 +1088,15 @@
         <v>0.1968</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
-        <v>0.23660518631556149</v>
+        <f t="shared" si="3"/>
+        <v>0.12804765706565138</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
-        <v>-0.12424961608264697</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-0.2119824317729645</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>2004</v>
       </c>
@@ -1106,15 +1107,15 @@
         <v>8.6699999999999999E-2</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
-        <v>7.5027853608824358E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.9345329484738601E-2</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
-        <v>-0.61418923635348321</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-0.65283982131461393</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>2005</v>
       </c>
@@ -1125,15 +1126,15 @@
         <v>0.2676</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
-        <v>-1.1416019389280047E-2</v>
+        <f t="shared" si="3"/>
+        <v>-9.8200577289197288E-2</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
-        <v>0.19080692447298614</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>7.1511693381883623E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>2006</v>
       </c>
@@ -1144,15 +1145,15 @@
         <v>0.1366</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
-        <v>-0.22496739411668423</v>
+        <f t="shared" ref="D39:E44" si="5">(B39-AVERAGE(B$2:B$33))/AVERAGE(B$2:B$33)</f>
+        <v>-0.29300497451329599</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
-        <v>-0.39213667457769097</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-0.45303252124078736</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>2007</v>
       </c>
@@ -1163,15 +1164,15 @@
         <v>9.5399999999999999E-2</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
-        <v>-0.55189219729331573</v>
+        <f t="shared" si="5"/>
+        <v>-0.59123011730025177</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
-        <v>-0.57547466145469772</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-0.61800367881677243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>2008</v>
       </c>
@@ -1182,15 +1183,15 @@
         <v>0.26910000000000001</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
-        <v>1.3897762734775488E-2</v>
+        <f t="shared" si="5"/>
+        <v>-7.5109009396302814E-2</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
-        <v>0.19748185117967329</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>7.7517924847028727E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>2009</v>
       </c>
@@ -1201,15 +1202,15 @@
         <v>0.19259999999999999</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
-        <v>0.14531399333625505</v>
+        <f t="shared" si="5"/>
+        <v>4.4770619664681072E-2</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
-        <v>-0.14293941086137099</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-0.22879987987537079</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>2010</v>
       </c>
@@ -1220,15 +1221,15 @@
         <v>0.112</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
-        <v>-0.94560229798873185</v>
+        <f t="shared" si="5"/>
+        <v>-0.95037769452803533</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
-        <v>-0.5016054725673601</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-0.5515347172691667</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>2011</v>
       </c>
@@ -1239,15 +1240,15 @@
         <v>0.15049999999999999</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
-        <v>-0.45144495546062746</v>
+        <f t="shared" si="5"/>
+        <v>-0.49960081066142598</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
-        <v>-0.33028235376239012</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-0.39737477633044288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>2012</v>
       </c>
@@ -1258,15 +1259,15 @@
         <v>0.2147</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
-        <v>-0.5949794860151123</v>
+        <f t="shared" ref="D45:D47" si="6">(B45-AVERAGE(B$2:B$33))/AVERAGE(B$2:B$33)</f>
+        <v>-0.63053491371368919</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
-        <v>-4.4595490716180408E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E45:E47" si="7">(C45-AVERAGE(C$2:C$33))/AVERAGE(C$2:C$33)</f>
+        <v>-0.14030806962223313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>2013</v>
       </c>
@@ -1277,15 +1278,15 @@
         <v>9.3200000000000005E-2</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
-        <v>-0.22254373412608314</v>
+        <f t="shared" si="6"/>
+        <v>-0.29079407971504012</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
-        <v>-0.58526455395783894</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-0.62681281829898516</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>2014</v>
       </c>
@@ -1296,15 +1297,15 @@
         <v>0.23169999999999999</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
-        <v>0.19674944424789972</v>
+        <f t="shared" si="6"/>
+        <v>9.1690720383221902E-2</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
-        <v>3.1053678626273815E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-7.223744635058886E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>2015</v>
       </c>
@@ -1315,15 +1316,15 @@
         <v>0.27200000000000002</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
-        <v>0.14019737780054167</v>
+        <f t="shared" ref="D48:E53" si="8">(B48-AVERAGE(B$2:B$33))/AVERAGE(B$2:B$33)</f>
+        <v>4.0103175090585357E-2</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
-        <v>0.21038670947926849</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>8.9129972346309275E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>2016</v>
       </c>
@@ -1334,15 +1335,15 @@
         <v>0.2893</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
-        <v>-0.65907182798878472</v>
+        <f t="shared" si="8"/>
+        <v>-0.68900079837867712</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
-        <v>0.28737086416306012</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.15840184191098255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>2017</v>
       </c>
@@ -1353,15 +1354,15 @@
         <v>0.14050000000000001</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
-        <v>-0.65099296135344786</v>
+        <f t="shared" si="8"/>
+        <v>-0.68163114905115763</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
-        <v>-0.37478186514030432</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>-0.43741631943141007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>2018</v>
       </c>
@@ -1372,15 +1373,15 @@
         <v>0.223</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
-        <v>9.3878542424610384E-2</v>
+        <f t="shared" si="8"/>
+        <v>-2.1494810538597539E-3</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
-        <v>-7.660896272511545E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>-0.10707358884843031</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>2019</v>
       </c>
@@ -1391,15 +1392,35 @@
         <v>0.1434</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
-        <v>0.27161360840202126</v>
+        <f t="shared" si="8"/>
+        <v>0.15998280415156924</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
-        <v>-0.36187700684070923</v>
+        <f t="shared" si="8"/>
+        <v>-0.42580427193212961</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A53">
+        <v>2020</v>
+      </c>
+      <c r="B53">
+        <v>0.35970000000000002</v>
+      </c>
+      <c r="C53">
+        <v>0.1862</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="8"/>
+        <v>-0.11637904563041196</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="8"/>
+        <v>-0.25442646745998981</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/IceAnom.xlsx
+++ b/data/IceAnom.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26362cec7e0913ab/Documents/Nhydra/Projects/Harpseals/HSmodel/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{5BF52D47-69F3-4069-B9AB-064B4C3E0A2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AE961753-35BE-474E-8549-EFD56D08DF62}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="8_{5BF52D47-69F3-4069-B9AB-064B4C3E0A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD992969-F14E-42BE-A924-9ECA64C16E67}"/>
   <bookViews>
-    <workbookView xWindow="-27975" yWindow="825" windowWidth="20640" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="27750" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Total Ice" sheetId="1" r:id="rId1"/>
+    <sheet name="No GW ice" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,21 +35,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>Gulf_conc</t>
-  </si>
-  <si>
-    <t>Labsea_conc</t>
   </si>
   <si>
     <t>Gulf_Anom</t>
   </si>
   <si>
-    <t>Lab_Anom</t>
+    <t>Front_Anom</t>
+  </si>
+  <si>
+    <t>Gulf_area</t>
+  </si>
+  <si>
+    <t>Front_area</t>
+  </si>
+  <si>
+    <t>Gulf_tot</t>
+  </si>
+  <si>
+    <t>Front_tot</t>
+  </si>
+  <si>
+    <t>Front_xnew</t>
+  </si>
+  <si>
+    <t>Gulf_xnew</t>
   </si>
 </sst>
 </file>
@@ -84,8 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,1027 +414,2198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.29296875" customWidth="1"/>
-    <col min="3" max="3" width="11.87890625" customWidth="1"/>
-    <col min="4" max="4" width="11.41015625" customWidth="1"/>
-    <col min="5" max="5" width="10.703125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="7" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1969</v>
       </c>
       <c r="B2">
+        <v>5616.5063044750004</v>
+      </c>
+      <c r="C2">
         <v>0.1424</v>
       </c>
-      <c r="C2">
+      <c r="D2">
+        <v>8.7900000000000006E-2</v>
+      </c>
+      <c r="E2">
+        <v>22832.352200112</v>
+      </c>
+      <c r="F2">
         <v>0.16320000000000001</v>
       </c>
-      <c r="D2">
-        <f t="shared" ref="D2:E6" si="0">(B2-AVERAGE(B$2:B$33))/AVERAGE(B$2:B$33)</f>
-        <v>-0.6501873119204078</v>
-      </c>
-      <c r="E2">
-        <f t="shared" si="0"/>
-        <v>-0.34652201659221443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G2">
+        <v>8.8500000000000009E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1970</v>
       </c>
       <c r="B3">
+        <v>40004.256747977997</v>
+      </c>
+      <c r="C3">
         <v>0.37509999999999999</v>
       </c>
-      <c r="C3">
+      <c r="D3">
+        <v>0.28710000000000002</v>
+      </c>
+      <c r="E3">
+        <v>94436.202618234005</v>
+      </c>
+      <c r="F3">
         <v>0.32029999999999997</v>
       </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>-7.8548179082478603E-2</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>0.28253062552398089</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G3">
+        <v>0.17569999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1971</v>
       </c>
       <c r="B4">
+        <v>50659.737544288997</v>
+      </c>
+      <c r="C4">
         <v>0.45400000000000001</v>
       </c>
-      <c r="C4">
+      <c r="D4">
+        <v>0.38170000000000004</v>
+      </c>
+      <c r="E4">
+        <v>211508.56538374801</v>
+      </c>
+      <c r="F4">
         <v>0.33210000000000001</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.11527359823128429</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0.3297796463831224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G4">
+        <v>0.21650000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1972</v>
       </c>
       <c r="B5">
+        <v>47412.948558821998</v>
+      </c>
+      <c r="C5">
         <v>0.51280000000000003</v>
       </c>
-      <c r="C5">
+      <c r="D5">
+        <v>0.39860000000000007</v>
+      </c>
+      <c r="E5">
+        <v>191535.889958794</v>
+      </c>
+      <c r="F5">
         <v>0.28899999999999998</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.25971872505066651</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0.15720059561795344</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G5">
+        <v>0.18089999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1973</v>
       </c>
       <c r="B6">
+        <v>64910.113435533</v>
+      </c>
+      <c r="C6">
         <v>0.43719999999999998</v>
       </c>
-      <c r="C6">
+      <c r="D6">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="E6">
+        <v>204166.59689350001</v>
+      </c>
+      <c r="F6">
         <v>0.25790000000000002</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>7.4003561997175005E-2</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>3.2671396573945452E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G6">
+        <v>0.19380000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1974</v>
       </c>
       <c r="B7">
+        <v>31253.323355891</v>
+      </c>
+      <c r="C7">
         <v>0.50600000000000001</v>
       </c>
-      <c r="C7">
+      <c r="D7">
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="E7">
+        <v>133488.620976398</v>
+      </c>
+      <c r="F7">
         <v>0.2586</v>
       </c>
-      <c r="D7">
-        <f t="shared" ref="D7:D19" si="1">(B7-AVERAGE(B$2:B$33))/AVERAGE(B$2:B$33)</f>
-        <v>0.2430141865749556</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ref="E7:E19" si="2">(C7-AVERAGE(C$2:C$33))/AVERAGE(C$2:C$33)</f>
-        <v>3.547430459101307E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G7">
+        <v>0.19919999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1975</v>
       </c>
       <c r="B8">
+        <v>40024.511601607002</v>
+      </c>
+      <c r="C8">
         <v>0.4506</v>
       </c>
-      <c r="C8">
+      <c r="D8">
+        <v>0.42280000000000001</v>
+      </c>
+      <c r="E8">
+        <v>155178.898104561</v>
+      </c>
+      <c r="F8">
         <v>0.20680000000000001</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>0.10692132899342882</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>-0.17194088867199722</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G8">
+        <v>0.1653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1976</v>
       </c>
       <c r="B9">
+        <v>38958.917267432997</v>
+      </c>
+      <c r="C9">
         <v>0.4224</v>
       </c>
-      <c r="C9">
+      <c r="D9">
+        <v>0.37040000000000001</v>
+      </c>
+      <c r="E9">
+        <v>159301.17698419499</v>
+      </c>
+      <c r="F9">
         <v>0.34749999999999998</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>3.7646625314745524E-2</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>0.39144362275861183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G9">
+        <v>0.19589999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1977</v>
       </c>
       <c r="B10">
+        <v>56219.906859757997</v>
+      </c>
+      <c r="C10">
         <v>0.4607</v>
       </c>
-      <c r="C10">
+      <c r="D10">
+        <v>0.37440000000000001</v>
+      </c>
+      <c r="E10">
+        <v>124860.095048701</v>
+      </c>
+      <c r="F10">
         <v>0.2387</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>0.13173248172941113</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
-        <v>-4.4208366179911758E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G10">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1978</v>
       </c>
       <c r="B11">
+        <v>58438.728363581002</v>
+      </c>
+      <c r="C11">
         <v>0.34260000000000002</v>
       </c>
-      <c r="C11">
+      <c r="D11">
+        <v>0.25590000000000002</v>
+      </c>
+      <c r="E11">
+        <v>50171.023962763997</v>
+      </c>
+      <c r="F11">
         <v>0.10539999999999999</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>-0.15838604679727311</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>-0.57796213571580524</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G11">
+        <v>9.1599999999999987E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1979</v>
       </c>
       <c r="B12">
+        <v>49546.977374075999</v>
+      </c>
+      <c r="C12">
         <v>0.47299999999999998</v>
       </c>
-      <c r="C12">
+      <c r="D12">
+        <v>0.37869999999999998</v>
+      </c>
+      <c r="E12">
+        <v>129216.45448335</v>
+      </c>
+      <c r="F12">
         <v>0.26650000000000001</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>0.16194804397224102</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>6.7107123640777269E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G12">
+        <v>0.16610000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1980</v>
       </c>
       <c r="B13">
+        <v>39067.919019563997</v>
+      </c>
+      <c r="C13">
         <v>0.38369999999999999</v>
       </c>
-      <c r="C13">
+      <c r="D13">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="E13">
+        <v>96769.305624676999</v>
+      </c>
+      <c r="F13">
         <v>0.26300000000000001</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>-5.7421851010256049E-2</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="2"/>
-        <v>5.3092583555438722E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G13">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1981</v>
       </c>
       <c r="B14">
+        <v>13715.455954902</v>
+      </c>
+      <c r="C14">
         <v>0.20749999999999999</v>
       </c>
-      <c r="C14">
+      <c r="D14">
+        <v>0.13829999999999998</v>
+      </c>
+      <c r="E14">
+        <v>39372.382440998997</v>
+      </c>
+      <c r="F14">
         <v>0.20979999999999999</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>-0.49026592151323461</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>-0.15992842574170715</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G14">
+        <v>0.10689999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1982</v>
       </c>
       <c r="B15">
+        <v>22723.60047288</v>
+      </c>
+      <c r="C15">
         <v>0.3372</v>
       </c>
-      <c r="C15">
+      <c r="D15">
+        <v>0.2702</v>
+      </c>
+      <c r="E15">
+        <v>83496.036838087995</v>
+      </c>
+      <c r="F15">
         <v>0.20019999999999999</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>-0.17165141558680827</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="2"/>
-        <v>-0.19836830711863571</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G15">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1983</v>
       </c>
       <c r="B16">
+        <v>30537.527888524</v>
+      </c>
+      <c r="C16">
         <v>0.28699999999999998</v>
       </c>
-      <c r="C16">
+      <c r="D16">
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="E16">
+        <v>199556.56562744599</v>
+      </c>
+      <c r="F16">
         <v>0.28270000000000001</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>-0.29497021433396792</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="2"/>
-        <v>0.13197442346434418</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G16">
+        <v>0.2487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1984</v>
       </c>
       <c r="B17">
+        <v>42041.524423267998</v>
+      </c>
+      <c r="C17">
         <v>0.3639</v>
       </c>
-      <c r="C17">
+      <c r="D17">
+        <v>0.34320000000000001</v>
+      </c>
+      <c r="E17">
+        <v>230294.402173226</v>
+      </c>
+      <c r="F17">
         <v>0.3175</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>-0.1060615365718847</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
-        <v>0.2713189934557102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G17">
+        <v>0.29970000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1985</v>
       </c>
       <c r="B18">
+        <v>45743.416234898003</v>
+      </c>
+      <c r="C18">
         <v>0.43059999999999998</v>
       </c>
-      <c r="C18">
+      <c r="D18">
+        <v>0.35949999999999999</v>
+      </c>
+      <c r="E18">
+        <v>238179.78587373</v>
+      </c>
+      <c r="F18">
         <v>0.2581</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>5.7790333476632122E-2</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="2"/>
-        <v>3.3472227435964709E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G18">
+        <v>0.21199999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1986</v>
       </c>
       <c r="B19">
+        <v>22609.217995677998</v>
+      </c>
+      <c r="C19">
         <v>0.46360000000000001</v>
       </c>
-      <c r="C19">
+      <c r="D19">
+        <v>0.36860000000000004</v>
+      </c>
+      <c r="E19">
+        <v>87592.206214026999</v>
+      </c>
+      <c r="F19">
         <v>0.18</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>0.13885647607934667</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="2"/>
-        <v>-0.27925222418258955</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G19">
+        <v>0.11609999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1987</v>
       </c>
       <c r="B20">
+        <v>47224.214824242998</v>
+      </c>
+      <c r="C20">
         <v>0.39879999999999999</v>
       </c>
-      <c r="C20">
+      <c r="D20">
+        <v>0.25529999999999997</v>
+      </c>
+      <c r="E20">
+        <v>152805.46591921899</v>
+      </c>
+      <c r="F20">
         <v>0.17519999999999999</v>
       </c>
-      <c r="D20">
-        <f t="shared" ref="D20:D38" si="3">(B20-AVERAGE(B$2:B$33))/AVERAGE(B$2:B$33)</f>
-        <v>-2.0327949395074561E-2</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ref="E20:E38" si="4">(C20-AVERAGE(C$2:C$33))/AVERAGE(C$2:C$33)</f>
-        <v>-0.29847216487105382</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G20">
+        <v>0.13519999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1988</v>
       </c>
       <c r="B21">
+        <v>68500.663573226993</v>
+      </c>
+      <c r="C21">
         <v>0.43030000000000002</v>
       </c>
-      <c r="C21">
+      <c r="D21">
+        <v>0.3649</v>
+      </c>
+      <c r="E21">
+        <v>130629.81906105801</v>
+      </c>
+      <c r="F21">
         <v>0.29859999999999998</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="3"/>
-        <v>5.7053368543880253E-2</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="4"/>
-        <v>0.19564047699488199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G21">
+        <v>0.26149999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1989</v>
       </c>
       <c r="B22">
+        <v>39478.097815481</v>
+      </c>
+      <c r="C22">
         <v>0.49299999999999999</v>
       </c>
-      <c r="C22">
+      <c r="D22">
+        <v>0.41789999999999999</v>
+      </c>
+      <c r="E22">
+        <v>132169.757509605</v>
+      </c>
+      <c r="F22">
         <v>0.2263</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="3"/>
-        <v>0.21107903948903772</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="4"/>
-        <v>-9.3859879625111123E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G22">
+        <v>0.12470000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1990</v>
       </c>
       <c r="B23">
+        <v>50512.747942925998</v>
+      </c>
+      <c r="C23">
         <v>0.5121</v>
       </c>
-      <c r="C23">
+      <c r="D23">
+        <v>0.42</v>
+      </c>
+      <c r="E23">
+        <v>240687.622954847</v>
+      </c>
+      <c r="F23">
         <v>0.33839999999999998</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="3"/>
-        <v>0.25799914020757858</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="4"/>
-        <v>0.35500581853673163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G23">
+        <v>0.26699999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1991</v>
       </c>
       <c r="B24">
+        <v>34004.922048692002</v>
+      </c>
+      <c r="C24">
         <v>0.49209999999999998</v>
       </c>
-      <c r="C24">
+      <c r="D24">
+        <v>0.37409999999999999</v>
+      </c>
+      <c r="E24">
+        <v>212151.40614365399</v>
+      </c>
+      <c r="F24">
         <v>0.28189999999999998</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="3"/>
-        <v>0.20886814469078185</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="4"/>
-        <v>0.12877110001626671</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G24">
+        <v>0.20439999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1992</v>
       </c>
       <c r="B25">
+        <v>63753.299962252997</v>
+      </c>
+      <c r="C25">
         <v>0.49869999999999998</v>
       </c>
-      <c r="C25">
+      <c r="D25">
+        <v>0.46409999999999996</v>
+      </c>
+      <c r="E25">
+        <v>181472.75384708599</v>
+      </c>
+      <c r="F25">
         <v>0.22409999999999999</v>
       </c>
-      <c r="D25">
-        <f t="shared" si="3"/>
-        <v>0.22508137321132474</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="4"/>
-        <v>-0.10266901910732396</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G25">
+        <v>0.18640000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1993</v>
       </c>
       <c r="B26">
+        <v>50494.495789612003</v>
+      </c>
+      <c r="C26">
         <v>0.53169999999999995</v>
       </c>
-      <c r="C26">
+      <c r="D26">
+        <v>0.46969999999999995</v>
+      </c>
+      <c r="E26">
+        <v>258069.73665106099</v>
+      </c>
+      <c r="F26">
         <v>0.29039999999999999</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="3"/>
-        <v>0.30614751581403915</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="4"/>
-        <v>0.16280641165208889</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G26">
+        <v>0.25029999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1994</v>
       </c>
       <c r="B27">
+        <v>51519.340268594999</v>
+      </c>
+      <c r="C27">
         <v>0.47620000000000001</v>
       </c>
-      <c r="C27">
+      <c r="D27">
+        <v>0.37490000000000001</v>
+      </c>
+      <c r="E27">
+        <v>254058.18928646701</v>
+      </c>
+      <c r="F27">
         <v>0.2135</v>
       </c>
-      <c r="D27">
-        <f t="shared" si="3"/>
-        <v>0.16980900325492859</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="4"/>
-        <v>-0.14511305479434922</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G27">
+        <v>0.1908</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1995</v>
       </c>
       <c r="B28">
+        <v>51407.355683059999</v>
+      </c>
+      <c r="C28">
         <v>0.47949999999999998</v>
       </c>
-      <c r="C28">
+      <c r="D28">
+        <v>0.38129999999999997</v>
+      </c>
+      <c r="E28">
+        <v>207800.61168311999</v>
+      </c>
+      <c r="F28">
         <v>0.24440000000000001</v>
       </c>
-      <c r="D28">
-        <f t="shared" si="3"/>
-        <v>0.17791561751519996</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="4"/>
-        <v>-2.1384686612360385E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G28">
+        <v>0.19240000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1996</v>
       </c>
       <c r="B29">
+        <v>43641.122856729999</v>
+      </c>
+      <c r="C29">
         <v>0.25640000000000002</v>
       </c>
-      <c r="C29">
+      <c r="D29">
+        <v>0.25540000000000002</v>
+      </c>
+      <c r="E29">
+        <v>68345.167319063999</v>
+      </c>
+      <c r="F29">
         <v>0.31280000000000002</v>
       </c>
-      <c r="D29">
-        <f t="shared" si="3"/>
-        <v>-0.37014063747466674</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="4"/>
-        <v>0.25249946819825569</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G29">
+        <v>0.23320000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1997</v>
       </c>
       <c r="B30">
+        <v>44072.415168583997</v>
+      </c>
+      <c r="C30">
         <v>0.4284</v>
       </c>
-      <c r="C30">
+      <c r="D30">
+        <v>0.3518</v>
+      </c>
+      <c r="E30">
+        <v>205644.92956892599</v>
+      </c>
+      <c r="F30">
         <v>0.24529999999999999</v>
       </c>
-      <c r="D30">
-        <f t="shared" si="3"/>
-        <v>5.2385923969784538E-2</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="4"/>
-        <v>-1.7780947733273395E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G30">
+        <v>0.14439999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1998</v>
       </c>
       <c r="B31">
+        <v>32943.372888553997</v>
+      </c>
+      <c r="C31">
         <v>0.31409999999999999</v>
       </c>
-      <c r="C31">
+      <c r="D31">
+        <v>0.24349999999999999</v>
+      </c>
+      <c r="E31">
+        <v>87423.653731074999</v>
+      </c>
+      <c r="F31">
         <v>0.1754</v>
       </c>
-      <c r="D31">
-        <f t="shared" si="3"/>
-        <v>-0.22839771540870843</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="4"/>
-        <v>-0.29767133400903445</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G31">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1999</v>
       </c>
       <c r="B32">
+        <v>58854.017679944001</v>
+      </c>
+      <c r="C32">
         <v>0.35349999999999998</v>
       </c>
-      <c r="C32">
+      <c r="D32">
+        <v>0.30049999999999999</v>
+      </c>
+      <c r="E32">
+        <v>107756.766371436</v>
+      </c>
+      <c r="F32">
         <v>0.25480000000000003</v>
       </c>
-      <c r="D32">
-        <f t="shared" si="3"/>
-        <v>-0.13160965424061902</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="4"/>
-        <v>2.0258518212645637E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G32">
+        <v>0.23020000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2000</v>
       </c>
       <c r="B33">
+        <v>37195.764743797998</v>
+      </c>
+      <c r="C33">
         <v>0.31130000000000002</v>
       </c>
-      <c r="C33">
+      <c r="D33">
+        <v>0.2389</v>
+      </c>
+      <c r="E33">
+        <v>105187.518821315</v>
+      </c>
+      <c r="F33">
         <v>0.21329999999999999</v>
       </c>
-      <c r="D33">
-        <f t="shared" si="3"/>
-        <v>-0.2352760547810599</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="4"/>
-        <v>-0.14591388565636859</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G33">
+        <v>0.14439999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2001</v>
       </c>
       <c r="B34">
+        <v>20750.909013705001</v>
+      </c>
+      <c r="C34">
         <v>0.37780000000000002</v>
       </c>
-      <c r="C34">
+      <c r="D34">
+        <v>0.25609999999999999</v>
+      </c>
+      <c r="E34">
+        <v>78062.374336630004</v>
+      </c>
+      <c r="F34">
         <v>0.1384</v>
       </c>
-      <c r="D34">
-        <f t="shared" si="3"/>
-        <v>-7.1915494687710968E-2</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="4"/>
-        <v>-0.44582504348261326</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G34">
+        <v>0.12039999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2002</v>
       </c>
       <c r="B35">
+        <v>55390.858232156999</v>
+      </c>
+      <c r="C35">
         <v>0.38719999999999999</v>
       </c>
-      <c r="C35">
+      <c r="D35">
+        <v>0.32819999999999999</v>
+      </c>
+      <c r="E35">
+        <v>102886.909689828</v>
+      </c>
+      <c r="F35">
         <v>0.21560000000000001</v>
       </c>
-      <c r="D35">
-        <f t="shared" si="3"/>
-        <v>-4.8823926794816626E-2</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="4"/>
-        <v>-0.13670433074314603</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G35">
+        <v>0.18010000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2003</v>
       </c>
       <c r="B36">
+        <v>45311.108250309</v>
+      </c>
+      <c r="C36">
         <v>0.4592</v>
       </c>
-      <c r="C36">
+      <c r="D36">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="E36">
+        <v>139047.79498437501</v>
+      </c>
+      <c r="F36">
         <v>0.1968</v>
       </c>
-      <c r="D36">
-        <f t="shared" si="3"/>
-        <v>0.12804765706565138</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="4"/>
-        <v>-0.2119824317729645</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G36">
+        <v>0.15329999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2004</v>
       </c>
       <c r="B37">
+        <v>19232.980213309002</v>
+      </c>
+      <c r="C37">
         <v>0.3992</v>
       </c>
-      <c r="C37">
+      <c r="D37">
+        <v>0.1502</v>
+      </c>
+      <c r="E37">
+        <v>36010.411083897001</v>
+      </c>
+      <c r="F37">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="D37">
-        <f t="shared" si="3"/>
-        <v>-1.9345329484738601E-2</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="4"/>
-        <v>-0.65283982131461393</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G37">
+        <v>8.5499999999999993E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2005</v>
       </c>
       <c r="B38">
+        <v>47644.713093172002</v>
+      </c>
+      <c r="C38">
         <v>0.36709999999999998</v>
       </c>
-      <c r="C38">
+      <c r="D38">
+        <v>0.28459999999999996</v>
+      </c>
+      <c r="E38">
+        <v>123344.52088583101</v>
+      </c>
+      <c r="F38">
         <v>0.2676</v>
       </c>
-      <c r="D38">
-        <f t="shared" si="3"/>
-        <v>-9.8200577289197288E-2</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="4"/>
-        <v>7.1511693381883623E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G38">
+        <v>0.2074</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2006</v>
       </c>
       <c r="B39">
+        <v>11100.598579811</v>
+      </c>
+      <c r="C39">
         <v>0.2878</v>
       </c>
-      <c r="C39">
+      <c r="D39">
+        <v>0.15260000000000001</v>
+      </c>
+      <c r="E39">
+        <v>74038.155266703994</v>
+      </c>
+      <c r="F39">
         <v>0.1366</v>
       </c>
-      <c r="D39">
-        <f t="shared" ref="D39:E44" si="5">(B39-AVERAGE(B$2:B$33))/AVERAGE(B$2:B$33)</f>
-        <v>-0.29300497451329599</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="5"/>
-        <v>-0.45303252124078736</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G39">
+        <v>0.1114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2007</v>
       </c>
       <c r="B40">
+        <v>29765.337986875998</v>
+      </c>
+      <c r="C40">
         <v>0.16639999999999999</v>
       </c>
-      <c r="C40">
+      <c r="D40">
+        <v>0.1515</v>
+      </c>
+      <c r="E40">
+        <v>65611.800665143994</v>
+      </c>
+      <c r="F40">
         <v>9.5399999999999999E-2</v>
       </c>
-      <c r="D40">
-        <f t="shared" si="5"/>
-        <v>-0.59123011730025177</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="5"/>
-        <v>-0.61800367881677243</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G40">
+        <v>9.2600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2008</v>
       </c>
       <c r="B41">
+        <v>36979.62636722</v>
+      </c>
+      <c r="C41">
         <v>0.3765</v>
       </c>
-      <c r="C41">
+      <c r="D41">
+        <v>0.32469999999999999</v>
+      </c>
+      <c r="E41">
+        <v>171837.02771185801</v>
+      </c>
+      <c r="F41">
         <v>0.26910000000000001</v>
       </c>
-      <c r="D41">
-        <f t="shared" si="5"/>
-        <v>-7.5109009396302814E-2</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="5"/>
-        <v>7.7517924847028727E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G41">
+        <v>0.1565</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2009</v>
       </c>
       <c r="B42">
+        <v>51005.742688461003</v>
+      </c>
+      <c r="C42">
         <v>0.42530000000000001</v>
       </c>
-      <c r="C42">
+      <c r="D42">
+        <v>0.3674</v>
+      </c>
+      <c r="E42">
+        <v>129537.258845351</v>
+      </c>
+      <c r="F42">
         <v>0.19259999999999999</v>
       </c>
-      <c r="D42">
-        <f t="shared" si="5"/>
-        <v>4.4770619664681072E-2</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="5"/>
-        <v>-0.22879987987537079</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G42">
+        <v>0.14629999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2010</v>
       </c>
       <c r="B43">
+        <v>3591.3240852610002</v>
+      </c>
+      <c r="C43">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="C43">
+      <c r="D43">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="E43">
+        <v>7421.5880422330001</v>
+      </c>
+      <c r="F43">
         <v>0.112</v>
       </c>
-      <c r="D43">
-        <f t="shared" si="5"/>
-        <v>-0.95037769452803533</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="5"/>
-        <v>-0.5515347172691667</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G43">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2011</v>
       </c>
       <c r="B44">
+        <v>4395.293767444</v>
+      </c>
+      <c r="C44">
         <v>0.20369999999999999</v>
       </c>
-      <c r="C44">
+      <c r="D44">
+        <v>8.539999999999999E-2</v>
+      </c>
+      <c r="E44">
+        <v>13889.706719885</v>
+      </c>
+      <c r="F44">
         <v>0.15049999999999999</v>
       </c>
-      <c r="D44">
-        <f t="shared" si="5"/>
-        <v>-0.49960081066142598</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="5"/>
-        <v>-0.39737477633044288</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G44">
+        <v>5.67E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2012</v>
       </c>
       <c r="B45">
+        <v>20861.50388525</v>
+      </c>
+      <c r="C45">
         <v>0.15040000000000001</v>
       </c>
-      <c r="C45">
+      <c r="D45">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E45">
+        <v>149331.94265237701</v>
+      </c>
+      <c r="F45">
         <v>0.2147</v>
       </c>
-      <c r="D45">
-        <f t="shared" ref="D45:D47" si="6">(B45-AVERAGE(B$2:B$33))/AVERAGE(B$2:B$33)</f>
-        <v>-0.63053491371368919</v>
-      </c>
-      <c r="E45">
-        <f t="shared" ref="E45:E47" si="7">(C45-AVERAGE(C$2:C$33))/AVERAGE(C$2:C$33)</f>
-        <v>-0.14030806962223313</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G45">
+        <v>0.1326</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2013</v>
       </c>
       <c r="B46">
+        <v>24484.101481078</v>
+      </c>
+      <c r="C46">
         <v>0.28870000000000001</v>
       </c>
-      <c r="C46">
+      <c r="D46">
+        <v>0.13020000000000001</v>
+      </c>
+      <c r="E46">
+        <v>51738.366713768999</v>
+      </c>
+      <c r="F46">
         <v>9.3200000000000005E-2</v>
       </c>
-      <c r="D46">
-        <f t="shared" si="6"/>
-        <v>-0.29079407971504012</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="7"/>
-        <v>-0.62681281829898516</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G46">
+        <v>8.320000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2014</v>
       </c>
       <c r="B47">
+        <v>84749.402381306005</v>
+      </c>
+      <c r="C47">
         <v>0.44440000000000002</v>
       </c>
-      <c r="C47">
+      <c r="D47">
+        <v>0.40190000000000003</v>
+      </c>
+      <c r="E47">
+        <v>304071.07848660898</v>
+      </c>
+      <c r="F47">
         <v>0.23169999999999999</v>
       </c>
-      <c r="D47">
-        <f t="shared" si="6"/>
-        <v>9.1690720383221902E-2</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="7"/>
-        <v>-7.223744635058886E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G47">
+        <v>0.16689999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2015</v>
       </c>
       <c r="B48">
+        <v>82985.054579631993</v>
+      </c>
+      <c r="C48">
         <v>0.4234</v>
       </c>
-      <c r="C48">
+      <c r="D48">
+        <v>0.35680000000000001</v>
+      </c>
+      <c r="E48">
+        <v>319340.40562779899</v>
+      </c>
+      <c r="F48">
         <v>0.27200000000000002</v>
       </c>
-      <c r="D48">
-        <f t="shared" ref="D48:E53" si="8">(B48-AVERAGE(B$2:B$33))/AVERAGE(B$2:B$33)</f>
-        <v>4.0103175090585357E-2</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="8"/>
-        <v>8.9129972346309275E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G48">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2016</v>
       </c>
       <c r="B49">
+        <v>5362.6342062269996</v>
+      </c>
+      <c r="C49">
         <v>0.12659999999999999</v>
       </c>
-      <c r="C49">
+      <c r="D49">
+        <v>8.5799999999999987E-2</v>
+      </c>
+      <c r="E49">
+        <v>144028.62864376901</v>
+      </c>
+      <c r="F49">
         <v>0.2893</v>
       </c>
-      <c r="D49">
-        <f t="shared" si="8"/>
-        <v>-0.68900079837867712</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="8"/>
-        <v>0.15840184191098255</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G49">
+        <v>0.1837</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2017</v>
       </c>
       <c r="B50">
+        <v>11070.751374005</v>
+      </c>
+      <c r="C50">
         <v>0.12959999999999999</v>
       </c>
-      <c r="C50">
+      <c r="D50">
+        <v>0.10049999999999999</v>
+      </c>
+      <c r="E50">
+        <v>187640.95736867399</v>
+      </c>
+      <c r="F50">
         <v>0.14050000000000001</v>
       </c>
-      <c r="D50">
-        <f t="shared" si="8"/>
-        <v>-0.68163114905115763</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="8"/>
-        <v>-0.43741631943141007</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G50">
+        <v>0.11600000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2018</v>
       </c>
       <c r="B51">
+        <v>61180.720486254999</v>
+      </c>
+      <c r="C51">
         <v>0.40620000000000001</v>
       </c>
-      <c r="C51">
+      <c r="D51">
+        <v>0.28139999999999998</v>
+      </c>
+      <c r="E51">
+        <v>183564.75999319699</v>
+      </c>
+      <c r="F51">
         <v>0.223</v>
       </c>
-      <c r="D51">
-        <f t="shared" si="8"/>
-        <v>-2.1494810538597539E-3</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="8"/>
-        <v>-0.10707358884843031</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G51">
+        <v>0.13640000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2019</v>
       </c>
       <c r="B52">
+        <v>65984.414917289003</v>
+      </c>
+      <c r="C52">
         <v>0.47220000000000001</v>
       </c>
-      <c r="C52">
+      <c r="D52">
+        <v>0.4047</v>
+      </c>
+      <c r="E52">
+        <v>230256.163176709</v>
+      </c>
+      <c r="F52">
         <v>0.1434</v>
       </c>
-      <c r="D52">
-        <f t="shared" si="8"/>
-        <v>0.15998280415156924</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="8"/>
-        <v>-0.42580427193212961</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G52">
+        <v>0.10880000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2020</v>
       </c>
       <c r="B53">
+        <v>55188.443076495998</v>
+      </c>
+      <c r="C53">
         <v>0.35970000000000002</v>
       </c>
-      <c r="C53">
+      <c r="D53">
+        <v>0.29300000000000004</v>
+      </c>
+      <c r="E53">
+        <v>124275.829942913</v>
+      </c>
+      <c r="F53">
         <v>0.1862</v>
       </c>
-      <c r="D53">
-        <f t="shared" si="8"/>
-        <v>-0.11637904563041196</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="8"/>
-        <v>-0.25442646745998981</v>
+      <c r="G53">
+        <v>7.2300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2021</v>
+      </c>
+      <c r="B54">
+        <v>8631.7365167259995</v>
+      </c>
+      <c r="C54">
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="D54">
+        <v>7.8200000000000006E-2</v>
+      </c>
+      <c r="E54">
+        <v>60345.582452094997</v>
+      </c>
+      <c r="F54">
+        <v>0.154</v>
+      </c>
+      <c r="G54">
+        <v>0.1089</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F41B212-7A8F-41FF-A8E3-3BF92C135BA8}">
+  <dimension ref="A1:E54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1969</v>
+      </c>
+      <c r="B2">
+        <v>1137.1607208739999</v>
+      </c>
+      <c r="C2">
+        <v>7039.5370741059996</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-0.94802170205377201</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-0.93064606595334032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1970</v>
+      </c>
+      <c r="B3">
+        <v>11091.544029712</v>
+      </c>
+      <c r="C3">
+        <v>43595.336205398999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-0.49301838370131595</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-0.57049617892449689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1971</v>
+      </c>
+      <c r="B4">
+        <v>18990.454546591001</v>
+      </c>
+      <c r="C4">
+        <v>115705.314678269</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-0.13196834322737735</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.13993557794619138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1972</v>
+      </c>
+      <c r="B5">
+        <v>18356.918732515998</v>
+      </c>
+      <c r="C5">
+        <v>83336.139503844999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-0.16092653066660512</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-0.17896744316999091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1973</v>
+      </c>
+      <c r="B6">
+        <v>33646.854818981999</v>
+      </c>
+      <c r="C6">
+        <v>132707.25089828001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.53795871826310471</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.30743965539547519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1974</v>
+      </c>
+      <c r="B7">
+        <v>11900.727553277</v>
+      </c>
+      <c r="C7">
+        <v>83045.522643613003</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-0.45603154313517885</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-0.18183061760109323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1975</v>
+      </c>
+      <c r="B8">
+        <v>14994.695302183</v>
+      </c>
+      <c r="C8">
+        <v>69379.744441247007</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-0.31460986497076426</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-0.31646666968318765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1976</v>
+      </c>
+      <c r="B9">
+        <v>15479.203806347999</v>
+      </c>
+      <c r="C9">
+        <v>90905.148286359006</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-0.29246354306156769</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-0.10439712265388941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1977</v>
+      </c>
+      <c r="B10">
+        <v>26246.212113889</v>
+      </c>
+      <c r="C10">
+        <v>88671.821128729993</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.19968392169499005</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-0.12639999340579705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1978</v>
+      </c>
+      <c r="B11">
+        <v>33712.257610681998</v>
+      </c>
+      <c r="C11">
+        <v>41895.423402032997</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.54094820403331745</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-0.5872438200276856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1979</v>
+      </c>
+      <c r="B12">
+        <v>19826.650258521</v>
+      </c>
+      <c r="C12">
+        <v>95099.289897192997</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-9.3746806853301654E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-6.3076192371400316E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1980</v>
+      </c>
+      <c r="B13">
+        <v>12484.896641697</v>
+      </c>
+      <c r="C13">
+        <v>52018.951177538002</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-0.42932985148201136</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-0.48750622787201586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1981</v>
+      </c>
+      <c r="B14">
+        <v>5150.3206646250001</v>
+      </c>
+      <c r="C14">
+        <v>17906.756118262001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-0.76458481452055371</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-0.82358158359819722</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1982</v>
+      </c>
+      <c r="B15">
+        <v>8949.7184742320005</v>
+      </c>
+      <c r="C15">
+        <v>39308.494416756999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-0.59091874626925611</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-0.61273039682094843</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1983</v>
+      </c>
+      <c r="B16">
+        <v>10991.822488166001</v>
+      </c>
+      <c r="C16">
+        <v>174406.811375955</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-0.49757653973237487</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.71826618229613004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1984</v>
+      </c>
+      <c r="B17">
+        <v>13026.666156388999</v>
+      </c>
+      <c r="C17">
+        <v>190951.11853684299</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-0.40456619517914444</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.88126167128993171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1985</v>
+      </c>
+      <c r="B18">
+        <v>21093.820535554001</v>
+      </c>
+      <c r="C18">
+        <v>186287.325385573</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-3.5825922848793643E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.83531370635766111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1986</v>
+      </c>
+      <c r="B19">
+        <v>7608.6599366629998</v>
+      </c>
+      <c r="C19">
+        <v>41813.355174033</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-0.65221697698506886</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-0.58805236104567016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1987</v>
+      </c>
+      <c r="B20">
+        <v>34130.677850136002</v>
+      </c>
+      <c r="C20">
+        <v>103302.781634335</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.56007370799581502</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.774509159950876E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1988</v>
+      </c>
+      <c r="B21">
+        <v>42129.883664205001</v>
+      </c>
+      <c r="C21">
+        <v>105050.094081067</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.92570813020599618</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3.4959716782081367E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1989</v>
+      </c>
+      <c r="B22">
+        <v>13608.142115392</v>
+      </c>
+      <c r="C22">
+        <v>50495.837189345999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-0.37798760334878562</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-0.50251203663054533</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1990</v>
+      </c>
+      <c r="B23">
+        <v>29995.774227909002</v>
+      </c>
+      <c r="C23">
+        <v>167067.071695569</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.37107205808843419</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.64595463448347956</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1991</v>
+      </c>
+      <c r="B24">
+        <v>11012.732029113</v>
+      </c>
+      <c r="C24">
+        <v>129387.859398179</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-0.49662078886153344</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.2747368147470674</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1992</v>
+      </c>
+      <c r="B25">
+        <v>37088.942689363001</v>
+      </c>
+      <c r="C25">
+        <v>119668.955220987</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.69529256351432966</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.17898559812372428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1993</v>
+      </c>
+      <c r="B26">
+        <v>36938.686791229004</v>
+      </c>
+      <c r="C26">
+        <v>174427.28837877701</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.68842454064120018</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.71846792293450445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1994</v>
+      </c>
+      <c r="B27">
+        <v>43891.273661605002</v>
+      </c>
+      <c r="C27">
+        <v>166861.41302205101</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.0062192245515662</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.64392847311389811</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1995</v>
+      </c>
+      <c r="B28">
+        <v>37906.421027479999</v>
+      </c>
+      <c r="C28">
+        <v>147835.228693023</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.73265855043531192</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.45648138401925409</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1996</v>
+      </c>
+      <c r="B29">
+        <v>28024.554557413001</v>
+      </c>
+      <c r="C29">
+        <v>62661.427872300002</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.28096989269552708</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-0.38265592038565716</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1997</v>
+      </c>
+      <c r="B30">
+        <v>15387.36923328</v>
+      </c>
+      <c r="C30">
+        <v>116474.405214839</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-0.2966611949089023</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.14751270322981094</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1998</v>
+      </c>
+      <c r="B31">
+        <v>8992.4836032839994</v>
+      </c>
+      <c r="C31">
+        <v>72641.043407919002</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-0.58896400180897857</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-0.28433616009712465</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1999</v>
+      </c>
+      <c r="B32">
+        <v>33669.813642016998</v>
+      </c>
+      <c r="C32">
+        <v>82141.570434305002</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.53900813944192516</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-0.19073640803101879</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2000</v>
+      </c>
+      <c r="B33">
+        <v>16972.805238514</v>
+      </c>
+      <c r="C33">
+        <v>63704.685971425999</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-0.22419275351620893</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-0.37237768012088568</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2001</v>
+      </c>
+      <c r="B34">
+        <v>5907.8901879040004</v>
+      </c>
+      <c r="C34">
+        <v>60125.320103958999</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-0.7299571900580123</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-0.40764180355512403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2002</v>
+      </c>
+      <c r="B35">
+        <v>26803.600899417001</v>
+      </c>
+      <c r="C35">
+        <v>84033.330791408007</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.22516151675630486</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-0.17209867352412733</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2003</v>
+      </c>
+      <c r="B36">
+        <v>24523.642389189001</v>
+      </c>
+      <c r="C36">
+        <v>105540.33562298901</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.12094725700014135</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3.9789605339733344E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2004</v>
+      </c>
+      <c r="B37">
+        <v>12114.160407859999</v>
+      </c>
+      <c r="C37">
+        <v>34149.139381366003</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-0.4462757748401725</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-0.66356066663570767</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2005</v>
+      </c>
+      <c r="B38">
+        <v>31589.349783012</v>
+      </c>
+      <c r="C38">
+        <v>81851.488085514007</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.44391254886735132</v>
+      </c>
+      <c r="E38" s="1">
+        <v>-0.1935943164239092</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2006</v>
+      </c>
+      <c r="B39">
+        <v>250.169414187</v>
+      </c>
+      <c r="C39">
+        <v>47965.298206744003</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-0.98856504616370233</v>
+      </c>
+      <c r="E39" s="1">
+        <v>-0.52744305579478035</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2007</v>
+      </c>
+      <c r="B40">
+        <v>9793.1129947259997</v>
+      </c>
+      <c r="C40">
+        <v>48132.818873500997</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-0.55236816070316308</v>
+      </c>
+      <c r="E40" s="1">
+        <v>-0.52579263231502449</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2008</v>
+      </c>
+      <c r="B41">
+        <v>13974.255946571</v>
+      </c>
+      <c r="C41">
+        <v>93318.969281387996</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-0.36125296465617318</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-8.0616015980629493E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2009</v>
+      </c>
+      <c r="B42">
+        <v>36853.542710192</v>
+      </c>
+      <c r="C42">
+        <v>93302.595686055996</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.68453270342658235</v>
+      </c>
+      <c r="E42" s="1">
+        <v>-8.0777329606626189E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2010</v>
+      </c>
+      <c r="B43">
+        <v>2355.1229373000001</v>
+      </c>
+      <c r="C43">
+        <v>4940.1342980210002</v>
+      </c>
+      <c r="D43" s="1">
+        <v>-0.89235006143996154</v>
+      </c>
+      <c r="E43" s="1">
+        <v>-0.95132950580701348</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2011</v>
+      </c>
+      <c r="B44">
+        <v>420.461562319</v>
+      </c>
+      <c r="C44">
+        <v>4410.3091885699996</v>
+      </c>
+      <c r="D44" s="1">
+        <v>-0.98078118953637772</v>
+      </c>
+      <c r="E44" s="1">
+        <v>-0.95654937400435447</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2012</v>
+      </c>
+      <c r="B45">
+        <v>14350.176075631</v>
+      </c>
+      <c r="C45">
+        <v>108099.288977955</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-0.34407009145840101</v>
+      </c>
+      <c r="E45" s="1">
+        <v>6.5000564574766384E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2013</v>
+      </c>
+      <c r="B46">
+        <v>19294.119468512999</v>
+      </c>
+      <c r="C46">
+        <v>44004.914430825003</v>
+      </c>
+      <c r="D46" s="1">
+        <v>-0.11808817176370913</v>
+      </c>
+      <c r="E46" s="1">
+        <v>-0.56646099011391016</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2014</v>
+      </c>
+      <c r="B47">
+        <v>67387.803601505002</v>
+      </c>
+      <c r="C47">
+        <v>230223.37739893701</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2.0802183624921686</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1.2681742796493261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2015</v>
+      </c>
+      <c r="B48">
+        <v>63450.349228562001</v>
+      </c>
+      <c r="C48">
+        <v>227925.17198789801</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1.9002418888155097</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1.2455322245219842</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2016</v>
+      </c>
+      <c r="B49">
+        <v>1534.1507317000001</v>
+      </c>
+      <c r="C49">
+        <v>93453.990344588005</v>
+      </c>
+      <c r="D49" s="1">
+        <v>-0.92987574899224645</v>
+      </c>
+      <c r="E49" s="1">
+        <v>-7.928578051009999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2017</v>
+      </c>
+      <c r="B50">
+        <v>5106.5969249609998</v>
+      </c>
+      <c r="C50">
+        <v>148655.51344857001</v>
+      </c>
+      <c r="D50" s="1">
+        <v>-0.76658337596034043</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.46456287776476607</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2018</v>
+      </c>
+      <c r="B51">
+        <v>34716.409942357001</v>
+      </c>
+      <c r="C51">
+        <v>129598.39216677099</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.58684684274033105</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.27681099598851555</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2019</v>
+      </c>
+      <c r="B52">
+        <v>37632.374381064998</v>
+      </c>
+      <c r="C52">
+        <v>169431.28105201499</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.72013219600093126</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.66924696437013964</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2020</v>
+      </c>
+      <c r="B53">
+        <v>29957.846646318001</v>
+      </c>
+      <c r="C53">
+        <v>44120.292910534001</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.36933843231317726</v>
+      </c>
+      <c r="E53" s="1">
+        <v>-0.56532427453333944</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2021</v>
+      </c>
+      <c r="C54">
+        <v>42540.449005969997</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1">
+        <v>-0.58088898977067827</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>